--- a/biology/Botanique/Calamagrostis_arundinacea/Calamagrostis_arundinacea.xlsx
+++ b/biology/Botanique/Calamagrostis_arundinacea/Calamagrostis_arundinacea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostis arundinacea, le calamagrostis faux-roseau, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie.
 Noms vernaculaires
@@ -513,7 +525,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostis arundinacea est une plante vivace dont les tiges atteignent 150 centimètres avec 2-3 nœuds. Les feuilles planes atteignent 12 mm de large et sont velues à la base. L'inflorescence  est étroite ou large. Les lemmes sont plus longues que les poils de la base et l'arête est genouillée. La floraison se déroule en juin-août.
 </t>
@@ -544,7 +558,9 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Calamagrostis arundinacea est une espèce caractéristique des mégaphorbiaies subalpines à montagnardes, mésohydriques oligotrophiles, acidophiles, occidentales. En France, on le trouve en particulier dans les hêtraies acides des Pyrénées, du Massif central et des Vosges.
 </t>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Tropicos                                           (11 octobre 2017)[2] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (11 octobre 2017) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces :
 Calamagrostis arundinacea subsp. adpressi-ramea (Ohwi) T. Koyama
 Calamagrostis arundinacea subsp. arundinacea
